--- a/class_list4_2.xlsx
+++ b/class_list4_2.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\src\koreaData\bbox_split\autoSplit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56117731-09FF-4A18-8198-D3EF78452AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="12940" yWindow="3390" windowWidth="23020" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhSNEWEji41ALhfTQ6Bgfivt/UcRA=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
   <si>
     <t>super</t>
   </si>
@@ -550,28 +559,48 @@
   </si>
   <si>
     <t>background_out</t>
+  </si>
+  <si>
+    <t>medical equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -579,21 +608,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -608,17 +645,20 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -633,17 +673,20 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -658,62 +701,68 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -903,26 +952,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.29"/>
-    <col customWidth="1" min="2" max="2" width="27.14"/>
-    <col customWidth="1" min="3" max="3" width="19.29"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -938,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -946,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -954,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -962,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -970,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -978,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -986,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="17.25" customHeight="1">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17.25" customHeight="1">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1">
+    <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="17.25" customHeight="1">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" ht="17.25" customHeight="1">
+    <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1">
+    <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1">
+    <row r="22" spans="1:2" ht="17.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1106,7 +1157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1114,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1">
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
@@ -1130,7 +1181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1138,7 +1189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" ht="17.25" customHeight="1">
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" ht="17.25" customHeight="1">
+    <row r="29" spans="1:2" ht="17.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1154,7 +1205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1">
+    <row r="30" spans="1:2" ht="17.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1162,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1">
+    <row r="31" spans="1:2" ht="17.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -1170,7 +1221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1">
+    <row r="32" spans="1:2" ht="17.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1">
+    <row r="33" spans="1:2" ht="17.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1">
+    <row r="34" spans="1:2" ht="17.25" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
@@ -1194,7 +1245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1">
+    <row r="35" spans="1:2" ht="17.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1">
+    <row r="36" spans="1:2" ht="17.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
@@ -1210,7 +1261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" ht="17.25" customHeight="1">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -1218,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" ht="17.25" customHeight="1">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
@@ -1234,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" ht="17.25" customHeight="1">
+    <row r="40" spans="1:2" ht="17.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1">
+    <row r="41" spans="1:2" ht="17.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1">
+    <row r="42" spans="1:2" ht="17.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" ht="17.25" customHeight="1">
+    <row r="43" spans="1:2" ht="17.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" ht="17.25" customHeight="1">
+    <row r="44" spans="1:2" ht="17.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
@@ -1274,7 +1325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" ht="17.25" customHeight="1">
+    <row r="45" spans="1:2" ht="17.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" ht="17.25" customHeight="1">
+    <row r="46" spans="1:2" ht="17.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -1290,7 +1341,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" ht="17.25" customHeight="1">
+    <row r="47" spans="1:2" ht="17.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1298,7 +1349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" ht="17.25" customHeight="1">
+    <row r="48" spans="1:2" ht="17.25" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" ht="17.25" customHeight="1">
+    <row r="49" spans="1:2" ht="17.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -1314,7 +1365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" ht="17.25" customHeight="1">
+    <row r="50" spans="1:2" ht="17.25" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1373,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" ht="17.25" customHeight="1">
+    <row r="51" spans="1:2" ht="17.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -1330,7 +1381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" ht="17.25" customHeight="1">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -1338,7 +1389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" ht="17.25" customHeight="1">
+    <row r="53" spans="1:2" ht="17.25" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -1346,7 +1397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" ht="17.25" customHeight="1">
+    <row r="54" spans="1:2" ht="17.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" ht="17.25" customHeight="1">
+    <row r="55" spans="1:2" ht="17.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -1362,7 +1413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" ht="17.25" customHeight="1">
+    <row r="56" spans="1:2" ht="17.25" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -1370,7 +1421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" ht="17.25" customHeight="1">
+    <row r="57" spans="1:2" ht="17.25" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" ht="17.25" customHeight="1">
+    <row r="58" spans="1:2" ht="17.25" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>49</v>
       </c>
@@ -1386,7 +1437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" ht="17.25" customHeight="1">
+    <row r="59" spans="1:2" ht="17.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>49</v>
       </c>
@@ -1394,7 +1445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" ht="17.25" customHeight="1">
+    <row r="60" spans="1:2" ht="17.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
@@ -1402,7 +1453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" ht="17.25" customHeight="1">
+    <row r="61" spans="1:2" ht="17.25" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
@@ -1410,7 +1461,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" ht="17.25" customHeight="1">
+    <row r="62" spans="1:2" ht="17.25" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>49</v>
       </c>
@@ -1418,7 +1469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" ht="17.25" customHeight="1">
+    <row r="63" spans="1:2" ht="17.25" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>49</v>
       </c>
@@ -1426,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" ht="17.25" customHeight="1">
+    <row r="64" spans="1:2" ht="17.25" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>49</v>
       </c>
@@ -1434,7 +1485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" ht="17.25" customHeight="1">
+    <row r="65" spans="1:2" ht="17.25" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -1442,7 +1493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" ht="17.25" customHeight="1">
+    <row r="66" spans="1:2" ht="17.25" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>49</v>
       </c>
@@ -1450,7 +1501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" ht="17.25" customHeight="1">
+    <row r="67" spans="1:2" ht="17.25" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>49</v>
       </c>
@@ -1458,7 +1509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" ht="17.25" customHeight="1">
+    <row r="68" spans="1:2" ht="17.25" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
@@ -1466,7 +1517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" ht="17.25" customHeight="1">
+    <row r="69" spans="1:2" ht="17.25" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>74</v>
       </c>
@@ -1474,7 +1525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" ht="17.25" customHeight="1">
+    <row r="70" spans="1:2" ht="17.25" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>74</v>
       </c>
@@ -1482,7 +1533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" ht="17.25" customHeight="1">
+    <row r="71" spans="1:2" ht="17.25" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>74</v>
       </c>
@@ -1490,7 +1541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" ht="17.25" customHeight="1">
+    <row r="72" spans="1:2" ht="17.25" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -1498,7 +1549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" ht="17.25" customHeight="1">
+    <row r="73" spans="1:2" ht="17.25" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>74</v>
       </c>
@@ -1506,7 +1557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" ht="17.25" customHeight="1">
+    <row r="74" spans="1:2" ht="17.25" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
@@ -1514,7 +1565,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" ht="17.25" customHeight="1">
+    <row r="75" spans="1:2" ht="17.25" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
@@ -1522,7 +1573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" ht="17.25" customHeight="1">
+    <row r="76" spans="1:2" ht="17.25" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -1530,7 +1581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" ht="17.25" customHeight="1">
+    <row r="77" spans="1:2" ht="17.25" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>74</v>
       </c>
@@ -1538,7 +1589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" ht="17.25" customHeight="1">
+    <row r="78" spans="1:2" ht="17.25" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>74</v>
       </c>
@@ -1546,7 +1597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" ht="17.25" customHeight="1">
+    <row r="79" spans="1:2" ht="17.25" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
@@ -1554,7 +1605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" ht="17.25" customHeight="1">
+    <row r="80" spans="1:2" ht="17.25" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>87</v>
       </c>
@@ -1562,7 +1613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" ht="17.25" customHeight="1">
+    <row r="81" spans="1:2" ht="17.25" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
@@ -1570,7 +1621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" ht="17.25" customHeight="1">
+    <row r="82" spans="1:2" ht="17.25" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>87</v>
       </c>
@@ -1578,7 +1629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" ht="17.25" customHeight="1">
+    <row r="83" spans="1:2" ht="17.25" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>87</v>
       </c>
@@ -1586,7 +1637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" ht="17.25" customHeight="1">
+    <row r="84" spans="1:2" ht="17.25" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>87</v>
       </c>
@@ -1594,7 +1645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" ht="17.25" customHeight="1">
+    <row r="85" spans="1:2" ht="17.25" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>87</v>
       </c>
@@ -1602,7 +1653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" ht="17.25" customHeight="1">
+    <row r="86" spans="1:2" ht="17.25" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>87</v>
       </c>
@@ -1610,7 +1661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" ht="17.25" customHeight="1">
+    <row r="87" spans="1:2" ht="17.25" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>87</v>
       </c>
@@ -1618,7 +1669,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" ht="17.25" customHeight="1">
+    <row r="88" spans="1:2" ht="17.25" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
@@ -1626,7 +1677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" ht="17.25" customHeight="1">
+    <row r="89" spans="1:2" ht="17.25" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -1634,7 +1685,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" ht="17.25" customHeight="1">
+    <row r="90" spans="1:2" ht="17.25" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>87</v>
       </c>
@@ -1642,7 +1693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" ht="17.25" customHeight="1">
+    <row r="91" spans="1:2" ht="17.25" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>87</v>
       </c>
@@ -1650,7 +1701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" ht="17.25" customHeight="1">
+    <row r="92" spans="1:2" ht="17.25" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>87</v>
       </c>
@@ -1658,7 +1709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" ht="17.25" customHeight="1">
+    <row r="93" spans="1:2" ht="17.25" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>87</v>
       </c>
@@ -1666,7 +1717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" ht="17.25" customHeight="1">
+    <row r="94" spans="1:2" ht="17.25" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>87</v>
       </c>
@@ -1674,7 +1725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" ht="17.25" customHeight="1">
+    <row r="95" spans="1:2" ht="17.25" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>87</v>
       </c>
@@ -1682,7 +1733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" ht="17.25" customHeight="1">
+    <row r="96" spans="1:2" ht="17.25" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>87</v>
       </c>
@@ -1690,7 +1741,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" ht="17.25" customHeight="1">
+    <row r="97" spans="1:2" ht="17.25" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>105</v>
       </c>
@@ -1698,7 +1749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" ht="17.25" customHeight="1">
+    <row r="98" spans="1:2" ht="17.25" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>105</v>
       </c>
@@ -1706,7 +1757,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" ht="17.25" customHeight="1">
+    <row r="99" spans="1:2" ht="17.25" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
@@ -1714,7 +1765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" ht="17.25" customHeight="1">
+    <row r="100" spans="1:2" ht="17.25" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>105</v>
       </c>
@@ -1722,7 +1773,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" ht="17.25" customHeight="1">
+    <row r="101" spans="1:2" ht="17.25" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>105</v>
       </c>
@@ -1730,7 +1781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" ht="17.25" customHeight="1">
+    <row r="102" spans="1:2" ht="17.25" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>105</v>
       </c>
@@ -1738,7 +1789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" ht="17.25" customHeight="1">
+    <row r="103" spans="1:2" ht="17.25" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>105</v>
       </c>
@@ -1746,7 +1797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" ht="17.25" customHeight="1">
+    <row r="104" spans="1:2" ht="17.25" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>105</v>
       </c>
@@ -1754,7 +1805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" ht="17.25" customHeight="1">
+    <row r="105" spans="1:2" ht="17.25" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>105</v>
       </c>
@@ -1762,7 +1813,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" ht="17.25" customHeight="1">
+    <row r="106" spans="1:2" ht="17.25" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
@@ -1770,7 +1821,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" ht="17.25" customHeight="1">
+    <row r="107" spans="1:2" ht="17.25" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -1778,7 +1829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" ht="17.25" customHeight="1">
+    <row r="108" spans="1:2" ht="17.25" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>105</v>
       </c>
@@ -1786,7 +1837,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" ht="17.25" customHeight="1">
+    <row r="109" spans="1:2" ht="17.25" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>105</v>
       </c>
@@ -1794,7 +1845,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" ht="17.25" customHeight="1">
+    <row r="110" spans="1:2" ht="17.25" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>105</v>
       </c>
@@ -1802,7 +1853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" ht="17.25" customHeight="1">
+    <row r="111" spans="1:2" ht="17.25" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>105</v>
       </c>
@@ -1810,7 +1861,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" ht="17.25" customHeight="1">
+    <row r="112" spans="1:2" ht="17.25" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>121</v>
       </c>
@@ -1818,7 +1869,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" ht="17.25" customHeight="1">
+    <row r="113" spans="1:2" ht="17.25" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>121</v>
       </c>
@@ -1826,7 +1877,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" ht="17.25" customHeight="1">
+    <row r="114" spans="1:2" ht="17.25" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>121</v>
       </c>
@@ -1834,7 +1885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" ht="17.25" customHeight="1">
+    <row r="115" spans="1:2" ht="17.25" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>121</v>
       </c>
@@ -1842,7 +1893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" ht="17.25" customHeight="1">
+    <row r="116" spans="1:2" ht="17.25" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>121</v>
       </c>
@@ -1850,7 +1901,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" ht="17.25" customHeight="1">
+    <row r="117" spans="1:2" ht="17.25" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>121</v>
       </c>
@@ -1858,7 +1909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" ht="17.25" customHeight="1">
+    <row r="118" spans="1:2" ht="17.25" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>121</v>
       </c>
@@ -1866,7 +1917,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" ht="17.25" customHeight="1">
+    <row r="119" spans="1:2" ht="17.25" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>121</v>
       </c>
@@ -1874,7 +1925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" ht="17.25" customHeight="1">
+    <row r="120" spans="1:2" ht="17.25" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>130</v>
       </c>
@@ -1882,7 +1933,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" ht="17.25" customHeight="1">
+    <row r="121" spans="1:2" ht="17.25" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>130</v>
       </c>
@@ -1890,7 +1941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" ht="17.25" customHeight="1">
+    <row r="122" spans="1:2" ht="17.25" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>133</v>
       </c>
@@ -1898,7 +1949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" ht="17.25" customHeight="1">
+    <row r="123" spans="1:2" ht="17.25" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>133</v>
       </c>
@@ -1906,7 +1957,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" ht="17.25" customHeight="1">
+    <row r="124" spans="1:2" ht="17.25" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>133</v>
       </c>
@@ -1914,7 +1965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" ht="17.25" customHeight="1">
+    <row r="125" spans="1:2" ht="17.25" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>133</v>
       </c>
@@ -1922,7 +1973,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" ht="17.25" customHeight="1">
+    <row r="126" spans="1:2" ht="17.25" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>133</v>
       </c>
@@ -1930,7 +1981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" ht="17.25" customHeight="1">
+    <row r="127" spans="1:2" ht="17.25" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>133</v>
       </c>
@@ -1938,7 +1989,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" ht="17.25" customHeight="1">
+    <row r="128" spans="1:2" ht="17.25" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>140</v>
       </c>
@@ -1946,7 +1997,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" ht="17.25" customHeight="1">
+    <row r="129" spans="1:2" ht="17.25" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -1954,7 +2005,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" ht="17.25" customHeight="1">
+    <row r="130" spans="1:2" ht="17.25" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>140</v>
       </c>
@@ -1962,7 +2013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" ht="17.25" customHeight="1">
+    <row r="131" spans="1:2" ht="17.25" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>140</v>
       </c>
@@ -1970,7 +2021,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" ht="17.25" customHeight="1">
+    <row r="132" spans="1:2" ht="17.25" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>140</v>
       </c>
@@ -1978,7 +2029,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133" ht="17.25" customHeight="1">
+    <row r="133" spans="1:2" ht="17.25" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>140</v>
       </c>
@@ -1986,7 +2037,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" ht="17.25" customHeight="1">
+    <row r="134" spans="1:2" ht="17.25" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>140</v>
       </c>
@@ -1994,7 +2045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" ht="17.25" customHeight="1">
+    <row r="135" spans="1:2" ht="17.25" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>140</v>
       </c>
@@ -2002,7 +2053,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" ht="17.25" customHeight="1">
+    <row r="136" spans="1:2" ht="17.25" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>140</v>
       </c>
@@ -2010,7 +2061,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" ht="17.25" customHeight="1">
+    <row r="137" spans="1:2" ht="17.25" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>140</v>
       </c>
@@ -2018,7 +2069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" ht="17.25" customHeight="1">
+    <row r="138" spans="1:2" ht="17.25" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>151</v>
       </c>
@@ -2026,7 +2077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" ht="17.25" customHeight="1">
+    <row r="139" spans="1:2" ht="17.25" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>151</v>
       </c>
@@ -2034,7 +2085,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" ht="17.25" customHeight="1">
+    <row r="140" spans="1:2" ht="17.25" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -2042,7 +2093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" ht="17.25" customHeight="1">
+    <row r="141" spans="1:2" ht="17.25" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>151</v>
       </c>
@@ -2050,7 +2101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" ht="17.25" customHeight="1">
+    <row r="142" spans="1:2" ht="17.25" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>151</v>
       </c>
@@ -2058,7 +2109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" ht="17.25" customHeight="1">
+    <row r="143" spans="1:2" ht="17.25" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>151</v>
       </c>
@@ -2066,7 +2117,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" ht="17.25" customHeight="1">
+    <row r="144" spans="1:2" ht="17.25" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>151</v>
       </c>
@@ -2074,7 +2125,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" ht="17.25" customHeight="1">
+    <row r="145" spans="1:2" ht="17.25" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>151</v>
       </c>
@@ -2082,7 +2133,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" ht="17.25" customHeight="1">
+    <row r="146" spans="1:2" ht="17.25" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>151</v>
       </c>
@@ -2090,47 +2141,47 @@
         <v>160</v>
       </c>
     </row>
-    <row r="147" ht="17.25" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>151</v>
+    <row r="147" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A147" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" ht="17.25" customHeight="1">
-      <c r="A148" s="4" t="s">
-        <v>151</v>
+    <row r="148" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A148" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="149" ht="17.25" customHeight="1">
-      <c r="A149" s="4" t="s">
-        <v>151</v>
+    <row r="149" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A149" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="150" ht="17.25" customHeight="1">
-      <c r="A150" s="4" t="s">
-        <v>151</v>
+    <row r="150" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A150" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="151" ht="17.25" customHeight="1">
-      <c r="A151" s="4" t="s">
-        <v>151</v>
+    <row r="151" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A151" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="152" ht="17.25" customHeight="1">
+    <row r="152" spans="1:2" ht="17.25" customHeight="1">
       <c r="A152" s="9" t="s">
         <v>166</v>
       </c>
@@ -2138,7 +2189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" ht="17.25" customHeight="1">
+    <row r="153" spans="1:2" ht="17.25" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>166</v>
       </c>
@@ -2146,7 +2197,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" ht="17.25" customHeight="1">
+    <row r="154" spans="1:2" ht="17.25" customHeight="1">
       <c r="A154" s="9" t="s">
         <v>166</v>
       </c>
@@ -2154,7 +2205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" ht="17.25" customHeight="1">
+    <row r="155" spans="1:2" ht="17.25" customHeight="1">
       <c r="A155" s="9" t="s">
         <v>166</v>
       </c>
@@ -2162,7 +2213,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" ht="17.25" customHeight="1">
+    <row r="156" spans="1:2" ht="17.25" customHeight="1">
       <c r="A156" s="9" t="s">
         <v>166</v>
       </c>
@@ -2170,7 +2221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" ht="17.25" customHeight="1">
+    <row r="157" spans="1:2" ht="17.25" customHeight="1">
       <c r="A157" s="9" t="s">
         <v>166</v>
       </c>
@@ -2178,7 +2229,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" ht="17.25" customHeight="1">
+    <row r="158" spans="1:2" ht="17.25" customHeight="1">
       <c r="A158" s="9" t="s">
         <v>166</v>
       </c>
@@ -2186,7 +2237,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" ht="17.25" customHeight="1">
+    <row r="159" spans="1:2" ht="17.25" customHeight="1">
       <c r="A159" s="9" t="s">
         <v>166</v>
       </c>
@@ -2194,7 +2245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" ht="17.25" customHeight="1">
+    <row r="160" spans="1:2" ht="17.25" customHeight="1">
       <c r="A160" s="9" t="s">
         <v>166</v>
       </c>
@@ -2202,36 +2253,36 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" ht="17.25" customHeight="1">
+    <row r="161" spans="1:2" ht="17.25" customHeight="1">
       <c r="A161" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="162" ht="17.25" customHeight="1">
+    <row r="162" spans="1:2" ht="17.25" customHeight="1">
       <c r="A162" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="163" ht="17.25" customHeight="1"/>
-    <row r="164" ht="17.25" customHeight="1"/>
-    <row r="165" ht="17.25" customHeight="1"/>
-    <row r="166" ht="17.25" customHeight="1"/>
-    <row r="167" ht="17.25" customHeight="1"/>
-    <row r="168" ht="17.25" customHeight="1"/>
-    <row r="169" ht="17.25" customHeight="1"/>
-    <row r="170" ht="17.25" customHeight="1"/>
-    <row r="171" ht="17.25" customHeight="1"/>
-    <row r="172" ht="17.25" customHeight="1"/>
-    <row r="173" ht="17.25" customHeight="1"/>
-    <row r="174" ht="17.25" customHeight="1"/>
-    <row r="175" ht="17.25" customHeight="1"/>
-    <row r="176" ht="17.25" customHeight="1"/>
+    <row r="163" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="164" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="165" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="166" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="167" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="168" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="169" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="170" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="171" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="172" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="173" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="174" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="175" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="176" spans="1:2" ht="17.25" customHeight="1"/>
     <row r="177" ht="17.25" customHeight="1"/>
     <row r="178" ht="17.25" customHeight="1"/>
     <row r="179" ht="17.25" customHeight="1"/>
@@ -3057,9 +3108,8 @@
     <row r="999" ht="17.25" customHeight="1"/>
     <row r="1000" ht="17.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/class_list4_2.xlsx
+++ b/class_list4_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\src\koreaData\bbox_split\autoSplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56117731-09FF-4A18-8198-D3EF78452AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC100778-9CBC-48DB-B3A5-7A80FA790473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="3390" windowWidth="23020" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2650" yWindow="2140" windowWidth="19710" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="189">
   <si>
     <t>super</t>
   </si>
@@ -562,6 +562,46 @@
   </si>
   <si>
     <t>medical equipment</t>
+  </si>
+  <si>
+    <t>sports</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuttlecock</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hula hoop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gripper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wihisk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tongs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruits</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jujube</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chestnut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,6 +619,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2269,13 +2310,62 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="164" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="165" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="166" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="167" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="168" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="169" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="163" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A164" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A165" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A166" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A167" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A168" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A169" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="170" spans="1:2" ht="17.25" customHeight="1"/>
     <row r="171" spans="1:2" ht="17.25" customHeight="1"/>
     <row r="172" spans="1:2" ht="17.25" customHeight="1"/>

--- a/class_list4_2.xlsx
+++ b/class_list4_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\src\koreaData\bbox_split\autoSplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC100778-9CBC-48DB-B3A5-7A80FA790473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1710C4E-3BE8-490D-83A1-CF70402B51FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2650" yWindow="2140" windowWidth="19710" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29952" yWindow="-3396" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>wihisk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>tongs</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -601,6 +597,10 @@
   </si>
   <si>
     <t>chestnut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>whisk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +784,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,18 +1006,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -2294,7 +2300,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="17.25" customHeight="1">
+    <row r="161" spans="1:7" ht="17.25" customHeight="1">
       <c r="A161" s="9" t="s">
         <v>166</v>
       </c>
@@ -2302,77 +2308,98 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="17.25" customHeight="1">
+    <row r="162" spans="1:7" ht="17.25" customHeight="1">
       <c r="A162" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="17.25" customHeight="1">
+      <c r="E162" s="12"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+    </row>
+    <row r="163" spans="1:7" ht="17.25" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="17.25" customHeight="1">
+      <c r="E163" s="12"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+    </row>
+    <row r="164" spans="1:7" ht="17.25" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="17.25" customHeight="1">
+      <c r="E164" s="12"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="1:7" ht="17.25" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="17.25" customHeight="1">
+      <c r="E165" s="12"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+    </row>
+    <row r="166" spans="1:7" ht="17.25" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="17.25" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+    </row>
+    <row r="167" spans="1:7" ht="17.25" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+    </row>
+    <row r="168" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="E168" s="12"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+    </row>
+    <row r="169" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A169" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A169" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="171" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="172" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="173" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="174" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="175" spans="1:2" ht="17.25" customHeight="1"/>
-    <row r="176" spans="1:2" ht="17.25" customHeight="1"/>
+    <row r="170" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="171" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="172" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="173" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="174" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="175" spans="1:7" ht="17.25" customHeight="1"/>
+    <row r="176" spans="1:7" ht="17.25" customHeight="1"/>
     <row r="177" ht="17.25" customHeight="1"/>
     <row r="178" ht="17.25" customHeight="1"/>
     <row r="179" ht="17.25" customHeight="1"/>
